--- a/resources/experiment 2/metrics/R2/upto time/Microalbuminuria (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Microalbuminuria (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8542419054730698</v>
+        <v>0.9911561796699074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8542407550274034</v>
+        <v>0.9911161716852674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8542407550274034</v>
+        <v>0.8479766132510336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8790891191495466</v>
+        <v>0.9878126472503834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8791157291439132</v>
+        <v>0.9845169553299112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8791157291439132</v>
+        <v>0.8917979030913983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6406418060585851</v>
+        <v>0.854977805745942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.640641806058585</v>
+        <v>0.8270616348056845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.640641806058585</v>
+        <v>0.6535902963770497</v>
       </c>
     </row>
   </sheetData>
